--- a/엑셀양식모음/신입사원등록양식.xlsx
+++ b/엑셀양식모음/신입사원등록양식.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lecture\FinalProject\InFlow-EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lecture\FinalProject\InFlowDatas\엑셀양식모음\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B388438-6CC6-41DB-8702-90EE9B427A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7BCA1E-9D3E-40C9-8515-6BFD58D03C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{38EC5B69-DDEB-40E7-945A-86EA373E5701}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{38EC5B69-DDEB-40E7-945A-86EA373E5701}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,38 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>NO</t>
-  </si>
-  <si>
-    <t>취득학점</t>
-  </si>
-  <si>
-    <t>성적</t>
-  </si>
-  <si>
-    <t>재수강여부</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>B+</t>
-  </si>
-  <si>
-    <t>C+</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>사번</t>
@@ -138,6 +108,93 @@
   </si>
   <si>
     <t>1999-03-08</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1997-03-08</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000-03-08</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001-03-08</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1996-03-08</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴대폰번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>입사일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>입사유형</t>
+  </si>
+  <si>
+    <t>퇴사일</t>
+  </si>
+  <si>
+    <t>퇴사여부</t>
+  </si>
+  <si>
+    <t>계약연봉</t>
+  </si>
+  <si>
+    <t>계약월급</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>도로명 주소</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세주소</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>우편번호</t>
+  </si>
+  <si>
+    <t>역할</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서코드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>근태상태유형코드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>직위코드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>직책코드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>직무코드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 프로필 사진</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경희님 사원등록 빼고 인사발령먼저 해야할듯..</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -246,7 +303,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -276,6 +333,9 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -612,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD31DCB-B294-433A-9924-AC6D797C4483}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -627,40 +687,92 @@
     <col min="5" max="5" width="13.4140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.25" customWidth="1"/>
+    <col min="11" max="11" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.08203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>3</v>
+      <c r="K1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -668,28 +780,36 @@
         <v>2025100001</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="4">
-        <v>4</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -697,26 +817,36 @@
         <v>2025100002</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="8">
-        <v>3</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -724,26 +854,38 @@
         <v>2025100003</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="F4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="4">
-        <v>3</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G4" s="4"/>
       <c r="H4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>5</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -751,26 +893,36 @@
         <v>2025100004</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="F5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="8">
-        <v>2</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>5</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -778,59 +930,52 @@
         <v>2025100005</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="8">
-        <v>3</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="6"/>
+    </row>
+    <row r="9" spans="1:24" ht="63" x14ac:dyDescent="0.45">
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" sqref="I2:I6" xr:uid="{F36AB139-CB54-449F-B0B1-B9E57A59CDB0}">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="H2:H6" xr:uid="{610465A8-9EC9-47FB-9144-4EA4200C404A}">
-      <formula1>"A+,A,A-,B+,B,B-,C+,C,C-,D+,D,D-,F,PASS,FAIL,"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G2:G6" xr:uid="{016EE273-02E9-48CF-BDB9-88DFA118989E}">
-      <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
-    </dataValidation>
+  <dataValidations count="2">
     <dataValidation allowBlank="1" sqref="D2:D6 F2:F6" xr:uid="{B230E659-BFB8-4601-BBD2-A8AC0E09A6DE}"/>
     <dataValidation type="list" allowBlank="1" sqref="C2:C6" xr:uid="{598AEC62-F670-44E5-B233-C4855F05C530}">
       <formula1>"남,여"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{16738B72-2823-486E-AF35-1146D353A14E}">
-      <formula1>AND(LEFT(TEXT(A2,"yyyy-mm-dd"),4)+0&gt;0,ISNUMBER(A2))</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475B9840-B66F-4A9B-A117-62DF3658F8C3}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/엑셀양식모음/신입사원등록양식.xlsx
+++ b/엑셀양식모음/신입사원등록양식.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lecture\FinalProject\InFlowDatas\엑셀양식모음\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7BCA1E-9D3E-40C9-8515-6BFD58D03C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96DA5F1-3F3D-4310-AC58-0F8A84D92EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{38EC5B69-DDEB-40E7-945A-86EA373E5701}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
   <si>
     <t>NO</t>
   </si>
@@ -83,30 +83,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>주민등록번호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>970308-1234567</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>000308-4234567</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>990308-2234567</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>010308-3234567</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>960308-1234567</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>1999-03-08</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -135,22 +111,9 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>입사일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>입사유형</t>
   </si>
   <si>
-    <t>퇴사일</t>
-  </si>
-  <si>
-    <t>퇴사여부</t>
-  </si>
-  <si>
-    <t>계약연봉</t>
-  </si>
-  <si>
     <t>계약월급</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -166,18 +129,10 @@
     <t>우편번호</t>
   </si>
   <si>
-    <t>역할</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>부서코드</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>근태상태유형코드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>직위코드</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -190,12 +145,147 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>아 프로필 사진</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>경희님 사원등록 빼고 인사발령먼저 해야할듯..</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>VETERAN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOKIE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2@example.com</t>
+  </si>
+  <si>
+    <t>3@example.com</t>
+  </si>
+  <si>
+    <t>4@example.com</t>
+  </si>
+  <si>
+    <t>5@example.com</t>
+  </si>
+  <si>
+    <t>1@example.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-4321-1234</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-9322-4234</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-1322-1234</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-7322-6234</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-5328-1934</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 성남시 분당구 백현로 101</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>202동 304호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13529</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 수원시 영통구 광교로 87</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>103동 506호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16506</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 고양시 일산서구 킨텍스로 42</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>101동 1103호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10390</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 용인시 기흥구 흥덕1로 55</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>201동 704호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17084</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 부천시 상동로 76</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>302동 905호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>14556</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP001</t>
+  </si>
+  <si>
+    <t>DP003</t>
+  </si>
+  <si>
+    <t>DP004</t>
+  </si>
+  <si>
+    <t>T003</t>
+  </si>
+  <si>
+    <t>T001</t>
+  </si>
+  <si>
+    <t>P002</t>
+  </si>
+  <si>
+    <t>P001</t>
+  </si>
+  <si>
+    <t>R002</t>
+  </si>
+  <si>
+    <t>D003</t>
+  </si>
+  <si>
+    <t>R001</t>
+  </si>
+  <si>
+    <t>D001</t>
+  </si>
+  <si>
+    <t>D005</t>
+  </si>
+  <si>
+    <t>D009</t>
   </si>
 </sst>
 </file>
@@ -244,9 +334,11 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="8"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -295,11 +387,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -334,13 +429,14 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1" xr:uid="{FB27BC6B-8BE0-48B8-9959-3C96B3012C5C}"/>
+    <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -672,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD31DCB-B294-433A-9924-AC6D797C4483}">
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -685,20 +781,16 @@
     <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" customWidth="1"/>
     <col min="5" max="5" width="13.4140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.25" customWidth="1"/>
-    <col min="11" max="11" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.08203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -715,64 +807,40 @@
         <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="2" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -786,30 +854,43 @@
         <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="4">
+        <v>5000000</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -823,30 +904,43 @@
         <v>7</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="6"/>
+      <c r="F3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -860,32 +954,43 @@
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="6"/>
+      <c r="F4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -899,30 +1004,43 @@
         <v>9</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -936,46 +1054,70 @@
         <v>10</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="6"/>
-    </row>
-    <row r="9" spans="1:24" ht="63" x14ac:dyDescent="0.45">
-      <c r="E9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>41</v>
+        <v>16</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation allowBlank="1" sqref="D2:D6 F2:F6" xr:uid="{B230E659-BFB8-4601-BBD2-A8AC0E09A6DE}"/>
+  <dataValidations count="7">
+    <dataValidation allowBlank="1" sqref="D2:D6" xr:uid="{B230E659-BFB8-4601-BBD2-A8AC0E09A6DE}"/>
     <dataValidation type="list" allowBlank="1" sqref="C2:C6" xr:uid="{598AEC62-F670-44E5-B233-C4855F05C530}">
       <formula1>"남,여"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{4FF04D90-E665-4A21-92D0-8D17A085B9BA}">
+      <formula1>"VETERAN,ROOKIE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576" xr:uid="{06FE42B3-3AAC-45AE-946F-B0DDD4630B48}">
+      <formula1>"DP001, DP002, DP003, DP004, DP005, DP006, T001, T002, T003, T004, T005, T006"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576" xr:uid="{C9F2DD61-EE3B-4652-83E2-4B29B105DC04}">
+      <formula1>"P001, P002, P003, P004, P005, P006, P007, P008, P009, P010"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576" xr:uid="{00BB61CE-5348-4044-958E-15BB3199FBE8}">
+      <formula1>"R001, R002, R003, R004, R005, R006, R007, R008, R009, R010"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P1048576" xr:uid="{B8E240E7-2027-4494-9E1A-58E1C3469378}">
+      <formula1>"D001, D002, D003, D004, D005, D006, D007, D008, D009, D010"</formula1>
+    </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{4443654B-F212-4F89-A8FF-F9B421B144AC}"/>
+    <hyperlink ref="F3:F6" r:id="rId2" display="1@example.com" xr:uid="{2EF849FF-A21E-416F-A535-4C785E6C638B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>